--- a/2023 Philip Hampson/functional analysis/traits.xlsx
+++ b/2023 Philip Hampson/functional analysis/traits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Philip Hampson/functional analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EF4703B0-CBB9-4275-BB35-0F218BC84784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE1460D-3D63-4215-AD64-00CD072D810A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C620FE7D-C2E7-41ED-8E3F-6513FCDF6D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8B3B26-52A2-4B62-9835-B6CD2BB9BA65}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>OFGS</t>
   </si>
@@ -443,6 +443,9 @@
     <t>NEOOPHORA_DUGESIIDAE_CURA_foremanii</t>
   </si>
   <si>
+    <t>flatworm</t>
+  </si>
+  <si>
     <t>NEOOPHORA_DUGESIIDAE_CURA_sp</t>
   </si>
   <si>
@@ -710,7 +713,7 @@
     <t>TRICHOPTERA_RHYACOPHILIDAE_RHYACOPHILA_torva</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>TRICHOPTERA_UENOIDAE_NEOPHYLAX_sp</t>
   </si>
   <si>
     <t>Max_Size</t>
@@ -1119,11 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3919,70 +3922,16 @@
       <c r="A122" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B122" t="s">
-        <v>224</v>
-      </c>
-      <c r="C122" t="s">
-        <v>224</v>
-      </c>
-      <c r="D122" t="s">
-        <v>224</v>
-      </c>
-      <c r="E122" t="s">
-        <v>224</v>
-      </c>
-      <c r="F122" t="s">
-        <v>224</v>
-      </c>
-      <c r="G122" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B123" t="s">
-        <v>224</v>
-      </c>
-      <c r="C123" t="s">
-        <v>224</v>
-      </c>
-      <c r="D123" t="s">
-        <v>224</v>
-      </c>
-      <c r="E123" t="s">
-        <v>224</v>
-      </c>
-      <c r="F123" t="s">
-        <v>224</v>
-      </c>
-      <c r="G123" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B124" t="s">
-        <v>224</v>
-      </c>
-      <c r="C124" t="s">
-        <v>224</v>
-      </c>
-      <c r="D124" t="s">
-        <v>224</v>
-      </c>
-      <c r="E124" t="s">
-        <v>224</v>
-      </c>
-      <c r="F124" t="s">
-        <v>224</v>
-      </c>
-      <c r="G124" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -4106,71 +4055,26 @@
       <c r="B130" s="3">
         <v>6</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -4193,7 +4097,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2">
         <v>5</v>
@@ -4216,7 +4120,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2">
         <v>5</v>
@@ -4239,7 +4143,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -4262,7 +4166,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -4285,145 +4189,37 @@
     </row>
     <row r="138" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" t="s">
-        <v>224</v>
-      </c>
-      <c r="C138" t="s">
-        <v>224</v>
-      </c>
-      <c r="D138" t="s">
-        <v>224</v>
-      </c>
-      <c r="E138" t="s">
-        <v>224</v>
-      </c>
-      <c r="F138" t="s">
-        <v>224</v>
-      </c>
-      <c r="G138" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" t="s">
-        <v>224</v>
-      </c>
-      <c r="C139" t="s">
-        <v>224</v>
-      </c>
-      <c r="D139" t="s">
-        <v>224</v>
-      </c>
-      <c r="E139" t="s">
-        <v>224</v>
-      </c>
-      <c r="F139" t="s">
-        <v>224</v>
-      </c>
-      <c r="G139" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" t="s">
-        <v>224</v>
-      </c>
-      <c r="C140" t="s">
-        <v>224</v>
-      </c>
-      <c r="D140" t="s">
-        <v>224</v>
-      </c>
-      <c r="E140" t="s">
-        <v>224</v>
-      </c>
-      <c r="F140" t="s">
-        <v>224</v>
-      </c>
-      <c r="G140" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" t="s">
-        <v>224</v>
-      </c>
-      <c r="C141" t="s">
-        <v>224</v>
-      </c>
-      <c r="D141" t="s">
-        <v>224</v>
-      </c>
-      <c r="E141" t="s">
-        <v>224</v>
-      </c>
-      <c r="F141" t="s">
-        <v>224</v>
-      </c>
-      <c r="G141" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" t="s">
-        <v>224</v>
-      </c>
-      <c r="C142" t="s">
-        <v>224</v>
-      </c>
-      <c r="D142" t="s">
-        <v>224</v>
-      </c>
-      <c r="E142" t="s">
-        <v>224</v>
-      </c>
-      <c r="F142" t="s">
-        <v>224</v>
-      </c>
-      <c r="G142" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" t="s">
-        <v>224</v>
-      </c>
-      <c r="C143" t="s">
-        <v>224</v>
-      </c>
-      <c r="D143" t="s">
-        <v>224</v>
-      </c>
-      <c r="E143" t="s">
-        <v>224</v>
-      </c>
-      <c r="F143" t="s">
-        <v>224</v>
-      </c>
-      <c r="G143" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -4446,7 +4242,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -4469,7 +4265,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -4492,7 +4288,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -4515,7 +4311,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -4538,7 +4334,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -4561,7 +4357,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2">
         <v>5</v>
@@ -4584,7 +4380,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
         <v>5</v>
@@ -4607,7 +4403,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -4630,7 +4426,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -4653,7 +4449,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -4676,7 +4472,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -4699,7 +4495,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -4722,7 +4518,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -4745,7 +4541,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -4768,7 +4564,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -4791,7 +4587,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2">
         <v>4</v>
@@ -4814,7 +4610,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -4837,7 +4633,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>5</v>
@@ -4860,7 +4656,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B163">
         <v>5</v>
@@ -4883,7 +4679,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2">
         <v>5</v>
@@ -4906,7 +4702,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -4929,7 +4725,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>5</v>
@@ -4952,7 +4748,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>5</v>
@@ -4975,7 +4771,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>5</v>
@@ -4998,7 +4794,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B169">
         <v>5</v>
@@ -5021,7 +4817,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B170">
         <v>5</v>
@@ -5044,7 +4840,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -5067,7 +4863,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -5090,7 +4886,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -5113,7 +4909,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -5136,7 +4932,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -5159,7 +4955,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -5182,7 +4978,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -5205,7 +5001,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5228,7 +5024,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -5251,7 +5047,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5274,7 +5070,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5297,7 +5093,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5320,7 +5116,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5343,7 +5139,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5366,7 +5162,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
         <v>1</v>
@@ -5389,7 +5185,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
         <v>1</v>
@@ -5412,7 +5208,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
         <v>1</v>
@@ -5435,7 +5231,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5458,7 +5254,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
         <v>1</v>
@@ -5481,7 +5277,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2">
         <v>1</v>
@@ -5504,7 +5300,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2">
         <v>1</v>
@@ -5527,7 +5323,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5550,7 +5346,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
         <v>1</v>
@@ -5573,7 +5369,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -5596,7 +5392,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -5619,7 +5415,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B196">
         <v>4</v>
@@ -5642,7 +5438,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -5665,7 +5461,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B198">
         <v>4</v>
@@ -5688,7 +5484,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -5711,7 +5507,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -5734,7 +5530,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -5757,7 +5553,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -5780,7 +5576,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -5803,7 +5599,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5826,7 +5622,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5849,7 +5645,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B206">
         <v>5</v>
@@ -5872,7 +5668,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5895,7 +5691,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B208">
         <v>5</v>
@@ -5918,7 +5714,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B209">
         <v>5</v>
@@ -5941,7 +5737,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B210">
         <v>5</v>
@@ -5964,7 +5760,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B211">
         <v>5</v>
@@ -5987,7 +5783,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -6010,7 +5806,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B213">
         <v>5</v>
@@ -6033,7 +5829,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B214">
         <v>5</v>
@@ -6056,7 +5852,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2">
         <v>5</v>
@@ -6079,7 +5875,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B216">
         <v>5</v>
@@ -6102,7 +5898,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -6125,7 +5921,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B218" s="2">
         <v>5</v>
@@ -6148,7 +5944,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B219">
         <v>5</v>
@@ -6171,7 +5967,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
         <v>5</v>
@@ -6189,6 +5985,29 @@
         <v>2</v>
       </c>
       <c r="G220" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
         <v>2</v>
       </c>
     </row>
